--- a/core/src/test/resources/has_margin.xlsx
+++ b/core/src/test/resources/has_margin.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="table_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="table_1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -28,23 +28,53 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i</t>
+  </si>
+  <si>
     <t xml:space="preserve">AAA</t>
   </si>
   <si>
+    <t xml:space="preserve">甲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">BBB</t>
   </si>
   <si>
-    <t xml:space="preserve">CCC</t>
+    <t xml:space="preserve">乙</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +95,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,8 +145,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,48 +183,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>10000000000</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>43800.395844919</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
-        <v>301</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>43801</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>43801.3958565046</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/test/resources/has_margin.xlsx
+++ b/core/src/test/resources/has_margin.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -49,16 +49,7 @@
     <t xml:space="preserve">i</t>
   </si>
   <si>
-    <t xml:space="preserve">AAA</t>
-  </si>
-  <si>
     <t xml:space="preserve">甲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBB</t>
   </si>
   <si>
     <t xml:space="preserve">乙</t>
@@ -68,11 +59,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -145,7 +137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,11 +154,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,7 +189,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
@@ -235,23 +231,20 @@
         <v>0.5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>43800</v>
+        <v>43466</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>43800.395844919</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>0.854178240740741</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>43497.5242592593</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,18 +258,18 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>43801</v>
+        <v>43467</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>43801.3958565046</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="5" t="n">
+        <v>0.854189814814815</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>43498.5242592593</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -284,7 +277,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
